--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MY  CODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEF049-0EB7-48E5-8A15-84BFFD1316D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7AF7FF-83CC-4F1C-81A7-1FEED12F6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>BU</t>
   </si>
@@ -60,15 +60,6 @@
     <t>Team To Assign</t>
   </si>
   <si>
-    <t>0-PT-BDR-01</t>
-  </si>
-  <si>
-    <t>OMNINSTAL</t>
-  </si>
-  <si>
-    <t>ESOE0033</t>
-  </si>
-  <si>
     <t>ZPQ</t>
   </si>
   <si>
@@ -79,6 +70,18 @@
   </si>
   <si>
     <t>EX152690</t>
+  </si>
+  <si>
+    <t>T501</t>
+  </si>
+  <si>
+    <t>GAMESA</t>
+  </si>
+  <si>
+    <t>ETGA0001</t>
+  </si>
+  <si>
+    <t>0-ES-BRJ-07</t>
   </si>
 </sst>
 </file>
@@ -488,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,19 +524,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2100</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AA51F-8547-4986-84C6-C90D78884D49}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -568,18 +571,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MY  CODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7AF7FF-83CC-4F1C-81A7-1FEED12F6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20F1E8-FFA0-4C6F-9131-DE4103363C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
-    <sheet name="Assign Teams" sheetId="4" r:id="rId2"/>
+    <sheet name="NAS Downloads" sheetId="5" r:id="rId2"/>
+    <sheet name="Assign Teams" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>BU</t>
   </si>
@@ -82,6 +83,15 @@
   </si>
   <si>
     <t>0-ES-BRJ-07</t>
+  </si>
+  <si>
+    <t>Functional Location (level 3)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>0-FR-BBC</t>
   </si>
 </sst>
 </file>
@@ -137,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -491,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -545,12 +558,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8125D225-87DB-4514-B520-D59F3D484DA4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AA51F-8547-4986-84C6-C90D78884D49}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MY  CODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A20F1E8-FFA0-4C6F-9131-DE4103363C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE09FFE-AFA8-42B3-A142-ECA55B674328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>BU</t>
   </si>
@@ -88,10 +88,40 @@
     <t>Functional Location (level 3)</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>0-FR-BQH</t>
   </si>
   <si>
     <t>0-FR-BBC</t>
+  </si>
+  <si>
+    <t>0-FR-BRX</t>
+  </si>
+  <si>
+    <t>0-FR-FVN</t>
+  </si>
+  <si>
+    <t>0-FR-LLC</t>
+  </si>
+  <si>
+    <t>0-FR-MCV</t>
+  </si>
+  <si>
+    <t>0-FR-MRV</t>
+  </si>
+  <si>
+    <t>0-FR-PDY</t>
+  </si>
+  <si>
+    <t>0-FR-TSS</t>
+  </si>
+  <si>
+    <t>0-FR-PV3</t>
+  </si>
+  <si>
+    <t>0-BE-SVY</t>
+  </si>
+  <si>
+    <t>0-FR-VDN</t>
   </si>
 </sst>
 </file>
@@ -559,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8125D225-87DB-4514-B520-D59F3D484DA4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,16 +606,66 @@
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
-        <v>2024</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MY  CODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE09FFE-AFA8-42B3-A142-ECA55B674328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35716BA3-9083-403D-B4C9-B824FA8957EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="4200" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>BU</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Team To Assign</t>
   </si>
   <si>
-    <t>ZPQ</t>
-  </si>
-  <si>
     <t>Equipo contrata 0-ES-ACA-01</t>
   </si>
   <si>
@@ -73,18 +70,6 @@
     <t>EX152690</t>
   </si>
   <si>
-    <t>T501</t>
-  </si>
-  <si>
-    <t>GAMESA</t>
-  </si>
-  <si>
-    <t>ETGA0001</t>
-  </si>
-  <si>
-    <t>0-ES-BRJ-07</t>
-  </si>
-  <si>
     <t>Functional Location (level 3)</t>
   </si>
   <si>
@@ -122,6 +107,39 @@
   </si>
   <si>
     <t>0-FR-VDN</t>
+  </si>
+  <si>
+    <t>0-IT-CTL-01</t>
+  </si>
+  <si>
+    <t>EBBK0001</t>
+  </si>
+  <si>
+    <t>ZP1</t>
+  </si>
+  <si>
+    <t>I801</t>
+  </si>
+  <si>
+    <t>BKW</t>
+  </si>
+  <si>
+    <t>0-IT-CTL-02</t>
+  </si>
+  <si>
+    <t>0-IT-VLC-01</t>
+  </si>
+  <si>
+    <t>804I</t>
+  </si>
+  <si>
+    <t>0-IT-BZI-01</t>
+  </si>
+  <si>
+    <t>ETBK0001</t>
+  </si>
+  <si>
+    <t>I810</t>
   </si>
 </sst>
 </file>
@@ -532,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,19 +585,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -591,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8125D225-87DB-4514-B520-D59F3D484DA4}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,68 +673,68 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -698,18 +767,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MY  CODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35716BA3-9083-403D-B4C9-B824FA8957EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B61C6-7012-45FF-AFE7-096576272901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>BU</t>
   </si>
@@ -109,37 +109,19 @@
     <t>0-FR-VDN</t>
   </si>
   <si>
-    <t>0-IT-CTL-01</t>
-  </si>
-  <si>
-    <t>EBBK0001</t>
-  </si>
-  <si>
     <t>ZP1</t>
   </si>
   <si>
-    <t>I801</t>
-  </si>
-  <si>
-    <t>BKW</t>
-  </si>
-  <si>
-    <t>0-IT-CTL-02</t>
-  </si>
-  <si>
-    <t>0-IT-VLC-01</t>
-  </si>
-  <si>
-    <t>804I</t>
-  </si>
-  <si>
-    <t>0-IT-BZI-01</t>
-  </si>
-  <si>
-    <t>ETBK0001</t>
-  </si>
-  <si>
-    <t>I810</t>
+    <t>0-BR-MVS-02</t>
+  </si>
+  <si>
+    <t>EPVL0001</t>
+  </si>
+  <si>
+    <t>3R71</t>
+  </si>
+  <si>
+    <t>VOLTALIA</t>
   </si>
 </sst>
 </file>
@@ -550,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,69 +567,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MY  CODE\CrmHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MYCODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2B61C6-7012-45FF-AFE7-096576272901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BDE63-C6FF-45F7-A389-ABC27B63D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>BU</t>
   </si>
@@ -112,16 +112,22 @@
     <t>ZP1</t>
   </si>
   <si>
-    <t>0-BR-MVS-02</t>
-  </si>
-  <si>
-    <t>EPVL0001</t>
-  </si>
-  <si>
-    <t>3R71</t>
-  </si>
-  <si>
-    <t>VOLTALIA</t>
+    <t>0-ES-BEL-01</t>
+  </si>
+  <si>
+    <t>ETVT0001</t>
+  </si>
+  <si>
+    <t>H314</t>
+  </si>
+  <si>
+    <t>VESTAS</t>
+  </si>
+  <si>
+    <t>0-ES-ACA-01</t>
+  </si>
+  <si>
+    <t>T558</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +585,23 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MYCODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7BDE63-C6FF-45F7-A389-ABC27B63D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDCBB6-5795-410A-9B44-12F7A5283237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="4620" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>BU</t>
   </si>
@@ -109,25 +109,22 @@
     <t>0-FR-VDN</t>
   </si>
   <si>
-    <t>ZP1</t>
-  </si>
-  <si>
-    <t>0-ES-BEL-01</t>
-  </si>
-  <si>
-    <t>ETVT0001</t>
-  </si>
-  <si>
-    <t>H314</t>
-  </si>
-  <si>
-    <t>VESTAS</t>
-  </si>
-  <si>
-    <t>0-ES-ACA-01</t>
-  </si>
-  <si>
-    <t>T558</t>
+    <t>0-BR-CEN-01</t>
+  </si>
+  <si>
+    <t>ETIN0001</t>
+  </si>
+  <si>
+    <t>ZPQ</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>0-BR-CEN-02</t>
+  </si>
+  <si>
+    <t>PREDIRE</t>
   </si>
 </sst>
 </file>
@@ -541,7 +538,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +547,7 @@
     <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -573,36 +570,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MYCODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDCBB6-5795-410A-9B44-12F7A5283237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76641EAA-E9C4-48D8-AC5E-CF4AE56305E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Create Teams" sheetId="3" r:id="rId1"/>
-    <sheet name="NAS Downloads" sheetId="5" r:id="rId2"/>
-    <sheet name="Assign Teams" sheetId="4" r:id="rId3"/>
+    <sheet name="Login" sheetId="6" r:id="rId1"/>
+    <sheet name="Create Teams" sheetId="3" r:id="rId2"/>
+    <sheet name="NAS Downloads" sheetId="5" r:id="rId3"/>
+    <sheet name="Assign Teams" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>BU</t>
   </si>
@@ -67,9 +68,6 @@
     <t>Equipo contrata 0-ES-ACA-01 ZPR Contrata E0AL0001</t>
   </si>
   <si>
-    <t>EX152690</t>
-  </si>
-  <si>
     <t>Functional Location (level 3)</t>
   </si>
   <si>
@@ -125,6 +123,21 @@
   </si>
   <si>
     <t>PREDIRE</t>
+  </si>
+  <si>
+    <t>JiraUrl</t>
+  </si>
+  <si>
+    <t>JiraPersonalAccessToken</t>
+  </si>
+  <si>
+    <t>https://agile.corp.edp.pt/</t>
+  </si>
+  <si>
+    <t>ODU3NjYzNTQ0NjUwOi7r3+JfsvqcSFHTGFeHM1ANFII2</t>
+  </si>
+  <si>
+    <t>ex121935</t>
   </si>
 </sst>
 </file>
@@ -180,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +213,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +548,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7BE5E7-4F93-42D6-9E3C-E32CEBF8DF64}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -570,36 +619,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8125D225-87DB-4514-B520-D59F3D484DA4}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -624,68 +673,68 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -693,11 +742,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AA51F-8547-4986-84C6-C90D78884D49}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,7 +769,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -726,7 +777,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MYCODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76641EAA-E9C4-48D8-AC5E-CF4AE56305E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB1BC9E-F268-4417-88C6-BABA4F4D799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="31530" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>BU</t>
   </si>
@@ -107,24 +107,9 @@
     <t>0-FR-VDN</t>
   </si>
   <si>
-    <t>0-BR-CEN-01</t>
-  </si>
-  <si>
-    <t>ETIN0001</t>
-  </si>
-  <si>
     <t>ZPQ</t>
   </si>
   <si>
-    <t>B020</t>
-  </si>
-  <si>
-    <t>0-BR-CEN-02</t>
-  </si>
-  <si>
-    <t>PREDIRE</t>
-  </si>
-  <si>
     <t>JiraUrl</t>
   </si>
   <si>
@@ -138,6 +123,39 @@
   </si>
   <si>
     <t>ex121935</t>
+  </si>
+  <si>
+    <t>0-ES-GBI-01</t>
+  </si>
+  <si>
+    <t>ESCL0002</t>
+  </si>
+  <si>
+    <t>H526</t>
+  </si>
+  <si>
+    <t>CELEMI</t>
+  </si>
+  <si>
+    <t>0-ES-GBI-02</t>
+  </si>
+  <si>
+    <t>0-ES-GBI-03</t>
+  </si>
+  <si>
+    <t>0-ES-GBI-04</t>
+  </si>
+  <si>
+    <t>0-ES-GBI-05</t>
+  </si>
+  <si>
+    <t>0-ES-GBI-06</t>
+  </si>
+  <si>
+    <t>0-ES-RCO-01</t>
+  </si>
+  <si>
+    <t>ESCL0001</t>
   </si>
 </sst>
 </file>
@@ -563,18 +581,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,39 +637,125 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3125</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -746,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AA51F-8547-4986-84C6-C90D78884D49}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -769,7 +873,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -777,7 +881,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>

--- a/dataCenter.xlsx
+++ b/dataCenter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe.cacho\Documents\MYCODE\CrmHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB1BC9E-F268-4417-88C6-BABA4F4D799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5991D71E-E99A-418A-B975-0E2B1FF05156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{DF524610-1964-40D8-A05C-F2A29F859B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="6" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>https://agile.corp.edp.pt/</t>
   </si>
   <si>
-    <t>ODU3NjYzNTQ0NjUwOi7r3+JfsvqcSFHTGFeHM1ANFII2</t>
-  </si>
-  <si>
     <t>ex121935</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>ESCL0001</t>
+  </si>
+  <si>
+    <t>(insert your jira private token in this cell)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587A5E4A-68E0-4D45-BDD1-D8521CA067EB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -637,112 +637,112 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -751,7 +751,7 @@
         <v>3125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2AA51F-8547-4986-84C6-C90D78884D49}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -873,7 +873,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
